--- a/data/trans_orig/Q5405-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5405-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5867CE75-0548-41D1-A9E7-EC443C04DF1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07F7CFAA-C597-42C4-9614-5612184F9A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9F30231C-AD44-438F-829B-DB551B40A45A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8FA4D444-17B7-4215-883E-2CCA965AABD9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -104,247 +104,250 @@
     <t>0,57%</t>
   </si>
   <si>
-    <t>2,87%</t>
+    <t>2,86%</t>
   </si>
   <si>
     <t>2,83%</t>
   </si>
   <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
   </si>
   <si>
     <t>2,24%</t>
   </si>
   <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
   </si>
   <si>
     <t>3,76%</t>
   </si>
   <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
   </si>
   <si>
     <t>2,62%</t>
   </si>
   <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
   </si>
   <si>
     <t>3,11%</t>
   </si>
   <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar un telefono en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar un telefono en 2015 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
     <t>2,23%</t>
   </si>
   <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
   </si>
   <si>
     <t>92,72%</t>
   </si>
   <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar un telefono en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar un telefono en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
+    <t>95,36%</t>
   </si>
   <si>
     <t>Población según si es capaz de usar un telefono en 2023 (Tasa respuesta: 31,26%)</t>
@@ -356,52 +359,49 @@
     <t>0,54%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
     <t>2,6%</t>
   </si>
   <si>
     <t>1,69%</t>
   </si>
   <si>
-    <t>3,57%</t>
+    <t>3,59%</t>
   </si>
   <si>
     <t>1,97%</t>
   </si>
   <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
   </si>
   <si>
     <t>4,36%</t>
   </si>
   <si>
-    <t>2,97%</t>
+    <t>2,93%</t>
   </si>
   <si>
     <t>3,5%</t>
   </si>
   <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
   </si>
   <si>
     <t>96,72%</t>
   </si>
   <si>
-    <t>95,44%</t>
+    <t>95,47%</t>
   </si>
   <si>
     <t>97,65%</t>
@@ -410,19 +410,19 @@
     <t>93,03%</t>
   </si>
   <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
   </si>
   <si>
     <t>94,53%</t>
   </si>
   <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
   </si>
 </sst>
 </file>
@@ -834,7 +834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32450B3C-693A-4DD5-B9F1-8CF99C539218}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2D1D5B-361D-4E6F-9C44-FBEDCD60DDD1}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1952,10 +1952,10 @@
         <v>34</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -1970,13 +1970,13 @@
         <v>476318</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="H26" s="7">
         <v>626</v>
@@ -1985,13 +1985,13 @@
         <v>639952</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="M26" s="7">
         <v>1121</v>
@@ -2000,13 +2000,13 @@
         <v>1116271</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2021,13 +2021,13 @@
         <v>502466</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" s="7">
         <v>661</v>
@@ -2036,13 +2036,13 @@
         <v>676842</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M27" s="7">
         <v>1184</v>
@@ -2051,13 +2051,13 @@
         <v>1179308</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2158,10 +2158,10 @@
         <v>34</v>
       </c>
       <c r="P29" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2176,13 +2176,13 @@
         <v>476318</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="H30" s="7">
         <v>626</v>
@@ -2191,13 +2191,13 @@
         <v>639952</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="M30" s="7">
         <v>1121</v>
@@ -2206,13 +2206,13 @@
         <v>1116271</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2227,13 +2227,13 @@
         <v>502466</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" s="7">
         <v>661</v>
@@ -2242,13 +2242,13 @@
         <v>676842</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M31" s="7">
         <v>1184</v>
@@ -2257,18 +2257,18 @@
         <v>1179308</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2290,7 +2290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{557CD1B2-8BAB-4BE7-A8BB-23622E86D43A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B7B6AB-6A98-42CA-B5FD-FDDF07A20425}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2307,7 +2307,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3324,13 +3324,13 @@
         <v>19209</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H24" s="7">
         <v>28</v>
@@ -3339,13 +3339,13 @@
         <v>31395</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M24" s="7">
         <v>46</v>
@@ -3354,13 +3354,13 @@
         <v>50604</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3375,13 +3375,13 @@
         <v>36462</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H25" s="7">
         <v>43</v>
@@ -3390,13 +3390,13 @@
         <v>45859</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M25" s="7">
         <v>73</v>
@@ -3405,13 +3405,13 @@
         <v>82321</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3426,13 +3426,13 @@
         <v>503966</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="H26" s="7">
         <v>623</v>
@@ -3477,13 +3477,13 @@
         <v>559637</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" s="7">
         <v>694</v>
@@ -3492,13 +3492,13 @@
         <v>742975</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M27" s="7">
         <v>1198</v>
@@ -3507,13 +3507,13 @@
         <v>1302612</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3530,13 +3530,13 @@
         <v>19209</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H28" s="7">
         <v>28</v>
@@ -3545,13 +3545,13 @@
         <v>31395</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M28" s="7">
         <v>46</v>
@@ -3560,13 +3560,13 @@
         <v>50604</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3581,13 +3581,13 @@
         <v>36462</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H29" s="7">
         <v>43</v>
@@ -3596,13 +3596,13 @@
         <v>45859</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M29" s="7">
         <v>73</v>
@@ -3611,13 +3611,13 @@
         <v>82321</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3632,13 +3632,13 @@
         <v>503966</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="H30" s="7">
         <v>623</v>
@@ -3683,13 +3683,13 @@
         <v>559637</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" s="7">
         <v>694</v>
@@ -3698,13 +3698,13 @@
         <v>742975</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M31" s="7">
         <v>1198</v>
@@ -3713,18 +3713,18 @@
         <v>1302612</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -3746,7 +3746,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEAE92DC-AB3D-4B4C-81A8-130D4CDC4CA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9923E03C-FE1D-40FF-8184-A8FA303FBC4C}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4831,13 +4831,13 @@
         <v>13187</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H25" s="7">
         <v>34</v>
@@ -4846,13 +4846,13 @@
         <v>41474</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M25" s="7">
         <v>49</v>
@@ -4861,13 +4861,13 @@
         <v>54661</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4882,13 +4882,13 @@
         <v>567762</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H26" s="7">
         <v>609</v>
@@ -4897,13 +4897,13 @@
         <v>720989</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M26" s="7">
         <v>1209</v>
@@ -4912,13 +4912,13 @@
         <v>1288751</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4933,13 +4933,13 @@
         <v>591328</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" s="7">
         <v>655</v>
@@ -4948,13 +4948,13 @@
         <v>777931</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M27" s="7">
         <v>1282</v>
@@ -4963,13 +4963,13 @@
         <v>1369259</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5037,13 +5037,13 @@
         <v>13187</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H29" s="7">
         <v>34</v>
@@ -5052,13 +5052,13 @@
         <v>41474</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M29" s="7">
         <v>49</v>
@@ -5067,13 +5067,13 @@
         <v>54661</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5088,13 +5088,13 @@
         <v>567762</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H30" s="7">
         <v>609</v>
@@ -5103,13 +5103,13 @@
         <v>720989</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M30" s="7">
         <v>1209</v>
@@ -5118,13 +5118,13 @@
         <v>1288751</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5139,13 +5139,13 @@
         <v>591328</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" s="7">
         <v>655</v>
@@ -5154,13 +5154,13 @@
         <v>777931</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M31" s="7">
         <v>1282</v>
@@ -5169,18 +5169,18 @@
         <v>1369259</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -5202,7 +5202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C65109A-4A34-4536-B083-1209352C2F81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E5367B0-93EB-4718-B58C-43BB17F6EAF6}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5219,7 +5219,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6236,13 +6236,13 @@
         <v>7208</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="H24" s="7">
         <v>47</v>
@@ -6389,13 +6389,13 @@
         <v>696921</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" s="7">
         <v>1706</v>
@@ -6404,13 +6404,13 @@
         <v>1025287</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M27" s="7">
         <v>2733</v>
@@ -6419,13 +6419,13 @@
         <v>1722208</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6442,13 +6442,13 @@
         <v>7208</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="H28" s="7">
         <v>47</v>
@@ -6595,13 +6595,13 @@
         <v>696921</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" s="7">
         <v>1706</v>
@@ -6610,13 +6610,13 @@
         <v>1025287</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M31" s="7">
         <v>2733</v>
@@ -6625,18 +6625,18 @@
         <v>1722208</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5405-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5405-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07F7CFAA-C597-42C4-9614-5612184F9A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C9CE0CB-1072-4F42-8C6D-0746FBE5A310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8FA4D444-17B7-4215-883E-2CCA965AABD9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FCA92285-668A-4F37-871C-DE70DAB55BA0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="125">
   <si>
     <t>Población según si es capaz de usar un telefono en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -101,292 +101,283 @@
     <t>1,44%</t>
   </si>
   <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
   </si>
   <si>
     <t>2,83%</t>
   </si>
   <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
   </si>
   <si>
     <t>2,24%</t>
   </si>
   <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
+    <t>3,3%</t>
   </si>
   <si>
     <t>3,76%</t>
   </si>
   <si>
-    <t>2,45%</t>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar un telefono en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar un telefono en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar un telefono en 2023 (Tasa respuesta: 31,26%)</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
   </si>
   <si>
     <t>5,63%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar un telefono en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar un telefono en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar un telefono en 2023 (Tasa respuesta: 31,26%)</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
   </si>
   <si>
     <t>3,5%</t>
@@ -834,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2D1D5B-361D-4E6F-9C44-FBEDCD60DDD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB44038-3CD1-4EB7-838F-E016CC96B37A}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1901,10 +1892,10 @@
         <v>25</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1919,13 +1910,13 @@
         <v>18903</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="H25" s="7">
         <v>18</v>
@@ -1934,13 +1925,13 @@
         <v>17765</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="M25" s="7">
         <v>39</v>
@@ -1949,10 +1940,10 @@
         <v>36668</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>35</v>
@@ -2107,10 +2098,10 @@
         <v>25</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2125,13 +2116,13 @@
         <v>18903</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="H29" s="7">
         <v>18</v>
@@ -2140,13 +2131,13 @@
         <v>17765</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="M29" s="7">
         <v>39</v>
@@ -2155,10 +2146,10 @@
         <v>36668</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>35</v>
@@ -2290,7 +2281,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B7B6AB-6A98-42CA-B5FD-FDDF07A20425}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7699198B-CEB4-430B-BC56-5E760411B63D}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3357,10 +3348,10 @@
         <v>54</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3375,13 +3366,13 @@
         <v>36462</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="H25" s="7">
         <v>43</v>
@@ -3390,13 +3381,13 @@
         <v>45859</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M25" s="7">
         <v>73</v>
@@ -3405,13 +3396,13 @@
         <v>82321</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3426,13 +3417,13 @@
         <v>503966</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H26" s="7">
         <v>623</v>
@@ -3441,13 +3432,13 @@
         <v>665721</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M26" s="7">
         <v>1079</v>
@@ -3456,13 +3447,13 @@
         <v>1169687</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3563,10 +3554,10 @@
         <v>54</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3581,13 +3572,13 @@
         <v>36462</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="H29" s="7">
         <v>43</v>
@@ -3596,13 +3587,13 @@
         <v>45859</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M29" s="7">
         <v>73</v>
@@ -3611,13 +3602,13 @@
         <v>82321</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3632,13 +3623,13 @@
         <v>503966</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H30" s="7">
         <v>623</v>
@@ -3647,13 +3638,13 @@
         <v>665721</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M30" s="7">
         <v>1079</v>
@@ -3662,13 +3653,13 @@
         <v>1169687</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,7 +3737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9923E03C-FE1D-40FF-8184-A8FA303FBC4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AD1FEB9-6337-47CD-B083-43F33C58A3A5}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3763,7 +3754,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4780,13 +4771,13 @@
         <v>10378</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H24" s="7">
         <v>12</v>
@@ -4795,13 +4786,13 @@
         <v>15468</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K24" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="L24" s="7" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="M24" s="7">
         <v>24</v>
@@ -4810,13 +4801,13 @@
         <v>25847</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4831,13 +4822,13 @@
         <v>13187</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H25" s="7">
         <v>34</v>
@@ -4846,13 +4837,13 @@
         <v>41474</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M25" s="7">
         <v>49</v>
@@ -4861,13 +4852,13 @@
         <v>54661</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4882,13 +4873,13 @@
         <v>567762</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H26" s="7">
         <v>609</v>
@@ -4897,13 +4888,13 @@
         <v>720989</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M26" s="7">
         <v>1209</v>
@@ -4912,13 +4903,13 @@
         <v>1288751</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4986,13 +4977,13 @@
         <v>10378</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H28" s="7">
         <v>12</v>
@@ -5001,13 +4992,13 @@
         <v>15468</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K28" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="L28" s="7" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="M28" s="7">
         <v>24</v>
@@ -5016,13 +5007,13 @@
         <v>25847</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5037,13 +5028,13 @@
         <v>13187</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H29" s="7">
         <v>34</v>
@@ -5052,13 +5043,13 @@
         <v>41474</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M29" s="7">
         <v>49</v>
@@ -5067,13 +5058,13 @@
         <v>54661</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5088,13 +5079,13 @@
         <v>567762</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H30" s="7">
         <v>609</v>
@@ -5103,13 +5094,13 @@
         <v>720989</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M30" s="7">
         <v>1209</v>
@@ -5118,13 +5109,13 @@
         <v>1288751</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,7 +5193,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E5367B0-93EB-4718-B58C-43BB17F6EAF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DEA0BE-E176-4169-BE40-59DC2212F6AA}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5219,7 +5210,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6236,13 +6227,13 @@
         <v>7208</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H24" s="7">
         <v>47</v>
@@ -6251,13 +6242,13 @@
         <v>26700</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M24" s="7">
         <v>59</v>
@@ -6266,13 +6257,13 @@
         <v>33907</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6290,10 +6281,10 @@
         <v>25</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H25" s="7">
         <v>78</v>
@@ -6302,13 +6293,13 @@
         <v>44724</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="M25" s="7">
         <v>103</v>
@@ -6317,13 +6308,13 @@
         <v>60357</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6338,13 +6329,13 @@
         <v>674081</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H26" s="7">
         <v>1581</v>
@@ -6353,13 +6344,13 @@
         <v>953863</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M26" s="7">
         <v>2571</v>
@@ -6368,13 +6359,13 @@
         <v>1627944</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6442,13 +6433,13 @@
         <v>7208</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H28" s="7">
         <v>47</v>
@@ -6457,13 +6448,13 @@
         <v>26700</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M28" s="7">
         <v>59</v>
@@ -6472,13 +6463,13 @@
         <v>33907</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6496,10 +6487,10 @@
         <v>25</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H29" s="7">
         <v>78</v>
@@ -6508,13 +6499,13 @@
         <v>44724</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="M29" s="7">
         <v>103</v>
@@ -6523,13 +6514,13 @@
         <v>60357</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6544,13 +6535,13 @@
         <v>674081</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H30" s="7">
         <v>1581</v>
@@ -6559,13 +6550,13 @@
         <v>953863</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M30" s="7">
         <v>2571</v>
@@ -6574,13 +6565,13 @@
         <v>1627944</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q5405-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5405-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C9CE0CB-1072-4F42-8C6D-0746FBE5A310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AB2A177-C4F5-4CF5-BC30-70D0A187D0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FCA92285-668A-4F37-871C-DE70DAB55BA0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2CCBB090-C3E9-41B8-9521-870F8B8AADD1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="128">
   <si>
     <t>Población según si es capaz de usar un telefono en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -101,319 +101,328 @@
     <t>1,44%</t>
   </si>
   <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
   </si>
   <si>
     <t>2,83%</t>
   </si>
   <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
   </si>
   <si>
     <t>2,24%</t>
   </si>
   <si>
-    <t>3,3%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
   </si>
   <si>
     <t>3,76%</t>
   </si>
   <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
   </si>
   <si>
     <t>2,62%</t>
   </si>
   <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
   </si>
   <si>
     <t>3,11%</t>
   </si>
   <si>
-    <t>2,28%</t>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar un telefono en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar un telefono en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar un telefono en 2023 (Tasa respuesta: 31,26%)</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
   </si>
   <si>
     <t>4,36%</t>
   </si>
   <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
   </si>
   <si>
     <t>95,74%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar un telefono en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar un telefono en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar un telefono en 2023 (Tasa respuesta: 31,26%)</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
   </si>
 </sst>
 </file>
@@ -825,7 +834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB44038-3CD1-4EB7-838F-E016CC96B37A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14DE07E6-898F-4219-8C18-BED690EBDB15}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1892,10 +1901,10 @@
         <v>25</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1910,13 +1919,13 @@
         <v>18903</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H25" s="7">
         <v>18</v>
@@ -1925,13 +1934,13 @@
         <v>17765</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M25" s="7">
         <v>39</v>
@@ -1940,13 +1949,13 @@
         <v>36668</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -1961,13 +1970,13 @@
         <v>476318</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H26" s="7">
         <v>626</v>
@@ -1976,13 +1985,13 @@
         <v>639952</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M26" s="7">
         <v>1121</v>
@@ -1991,13 +2000,13 @@
         <v>1116271</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2012,13 +2021,13 @@
         <v>502466</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" s="7">
         <v>661</v>
@@ -2027,13 +2036,13 @@
         <v>676842</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M27" s="7">
         <v>1184</v>
@@ -2042,13 +2051,13 @@
         <v>1179308</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2098,10 +2107,10 @@
         <v>25</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2116,13 +2125,13 @@
         <v>18903</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H29" s="7">
         <v>18</v>
@@ -2131,13 +2140,13 @@
         <v>17765</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M29" s="7">
         <v>39</v>
@@ -2146,13 +2155,13 @@
         <v>36668</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2167,13 +2176,13 @@
         <v>476318</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H30" s="7">
         <v>626</v>
@@ -2182,13 +2191,13 @@
         <v>639952</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M30" s="7">
         <v>1121</v>
@@ -2197,13 +2206,13 @@
         <v>1116271</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2218,13 +2227,13 @@
         <v>502466</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" s="7">
         <v>661</v>
@@ -2233,13 +2242,13 @@
         <v>676842</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M31" s="7">
         <v>1184</v>
@@ -2248,18 +2257,18 @@
         <v>1179308</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2281,7 +2290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7699198B-CEB4-430B-BC56-5E760411B63D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA9BC4B-75DF-4053-8D4C-4FDEA01AD8D4}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2298,7 +2307,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3315,13 +3324,13 @@
         <v>19209</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H24" s="7">
         <v>28</v>
@@ -3330,13 +3339,13 @@
         <v>31395</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M24" s="7">
         <v>46</v>
@@ -3345,13 +3354,13 @@
         <v>50604</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3366,13 +3375,13 @@
         <v>36462</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H25" s="7">
         <v>43</v>
@@ -3381,13 +3390,13 @@
         <v>45859</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M25" s="7">
         <v>73</v>
@@ -3396,13 +3405,13 @@
         <v>82321</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3417,13 +3426,13 @@
         <v>503966</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="H26" s="7">
         <v>623</v>
@@ -3432,13 +3441,13 @@
         <v>665721</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M26" s="7">
         <v>1079</v>
@@ -3447,13 +3456,13 @@
         <v>1169687</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3468,13 +3477,13 @@
         <v>559637</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" s="7">
         <v>694</v>
@@ -3483,13 +3492,13 @@
         <v>742975</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M27" s="7">
         <v>1198</v>
@@ -3498,13 +3507,13 @@
         <v>1302612</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3521,13 +3530,13 @@
         <v>19209</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H28" s="7">
         <v>28</v>
@@ -3536,13 +3545,13 @@
         <v>31395</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M28" s="7">
         <v>46</v>
@@ -3551,13 +3560,13 @@
         <v>50604</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3572,13 +3581,13 @@
         <v>36462</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H29" s="7">
         <v>43</v>
@@ -3587,13 +3596,13 @@
         <v>45859</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M29" s="7">
         <v>73</v>
@@ -3602,13 +3611,13 @@
         <v>82321</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3623,13 +3632,13 @@
         <v>503966</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="H30" s="7">
         <v>623</v>
@@ -3638,13 +3647,13 @@
         <v>665721</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M30" s="7">
         <v>1079</v>
@@ -3653,13 +3662,13 @@
         <v>1169687</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3674,13 +3683,13 @@
         <v>559637</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" s="7">
         <v>694</v>
@@ -3689,13 +3698,13 @@
         <v>742975</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M31" s="7">
         <v>1198</v>
@@ -3704,18 +3713,18 @@
         <v>1302612</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -3737,7 +3746,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AD1FEB9-6337-47CD-B083-43F33C58A3A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72EFE48-E237-4932-88A0-38E4ABFDBC76}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3754,7 +3763,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4771,13 +4780,13 @@
         <v>10378</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H24" s="7">
         <v>12</v>
@@ -4786,13 +4795,13 @@
         <v>15468</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="M24" s="7">
         <v>24</v>
@@ -4801,13 +4810,13 @@
         <v>25847</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4822,13 +4831,13 @@
         <v>13187</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H25" s="7">
         <v>34</v>
@@ -4837,13 +4846,13 @@
         <v>41474</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M25" s="7">
         <v>49</v>
@@ -4852,13 +4861,13 @@
         <v>54661</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,13 +4882,13 @@
         <v>567762</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H26" s="7">
         <v>609</v>
@@ -4888,13 +4897,13 @@
         <v>720989</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M26" s="7">
         <v>1209</v>
@@ -4903,13 +4912,13 @@
         <v>1288751</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4924,13 +4933,13 @@
         <v>591328</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" s="7">
         <v>655</v>
@@ -4939,13 +4948,13 @@
         <v>777931</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M27" s="7">
         <v>1282</v>
@@ -4954,13 +4963,13 @@
         <v>1369259</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4977,13 +4986,13 @@
         <v>10378</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H28" s="7">
         <v>12</v>
@@ -4992,13 +5001,13 @@
         <v>15468</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="M28" s="7">
         <v>24</v>
@@ -5007,13 +5016,13 @@
         <v>25847</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5028,13 +5037,13 @@
         <v>13187</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H29" s="7">
         <v>34</v>
@@ -5043,13 +5052,13 @@
         <v>41474</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M29" s="7">
         <v>49</v>
@@ -5058,13 +5067,13 @@
         <v>54661</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5079,13 +5088,13 @@
         <v>567762</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H30" s="7">
         <v>609</v>
@@ -5094,13 +5103,13 @@
         <v>720989</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M30" s="7">
         <v>1209</v>
@@ -5109,13 +5118,13 @@
         <v>1288751</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5130,13 +5139,13 @@
         <v>591328</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" s="7">
         <v>655</v>
@@ -5145,13 +5154,13 @@
         <v>777931</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M31" s="7">
         <v>1282</v>
@@ -5160,18 +5169,18 @@
         <v>1369259</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -5193,7 +5202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DEA0BE-E176-4169-BE40-59DC2212F6AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD519EA-1F17-47FD-AD57-9020863D5767}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5210,7 +5219,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6227,13 +6236,13 @@
         <v>7208</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="H24" s="7">
         <v>47</v>
@@ -6242,13 +6251,13 @@
         <v>26700</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M24" s="7">
         <v>59</v>
@@ -6257,13 +6266,13 @@
         <v>33907</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6281,10 +6290,10 @@
         <v>25</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H25" s="7">
         <v>78</v>
@@ -6293,13 +6302,13 @@
         <v>44724</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="M25" s="7">
         <v>103</v>
@@ -6308,13 +6317,13 @@
         <v>60357</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6329,13 +6338,13 @@
         <v>674081</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H26" s="7">
         <v>1581</v>
@@ -6344,13 +6353,13 @@
         <v>953863</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M26" s="7">
         <v>2571</v>
@@ -6359,13 +6368,13 @@
         <v>1627944</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6380,13 +6389,13 @@
         <v>696921</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" s="7">
         <v>1706</v>
@@ -6395,13 +6404,13 @@
         <v>1025287</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M27" s="7">
         <v>2733</v>
@@ -6410,13 +6419,13 @@
         <v>1722208</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6433,13 +6442,13 @@
         <v>7208</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="H28" s="7">
         <v>47</v>
@@ -6448,13 +6457,13 @@
         <v>26700</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M28" s="7">
         <v>59</v>
@@ -6463,13 +6472,13 @@
         <v>33907</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6487,10 +6496,10 @@
         <v>25</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H29" s="7">
         <v>78</v>
@@ -6499,13 +6508,13 @@
         <v>44724</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="M29" s="7">
         <v>103</v>
@@ -6514,13 +6523,13 @@
         <v>60357</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6535,13 +6544,13 @@
         <v>674081</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H30" s="7">
         <v>1581</v>
@@ -6550,13 +6559,13 @@
         <v>953863</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M30" s="7">
         <v>2571</v>
@@ -6565,13 +6574,13 @@
         <v>1627944</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6586,13 +6595,13 @@
         <v>696921</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" s="7">
         <v>1706</v>
@@ -6601,13 +6610,13 @@
         <v>1025287</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M31" s="7">
         <v>2733</v>
@@ -6616,18 +6625,18 @@
         <v>1722208</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5405-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5405-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AB2A177-C4F5-4CF5-BC30-70D0A187D0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55F3CAEB-3B7B-46E8-ADAD-8CA13117C411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2CCBB090-C3E9-41B8-9521-870F8B8AADD1}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{98B7ECC1-EF0D-4999-92F8-3DC6A5CBEE53}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="318">
   <si>
     <t>Población según si es capaz de usar un telefono en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>No puede</t>
@@ -83,19 +83,184 @@
     <t>Sin ayuda</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>65 y más</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
   </si>
   <si>
     <t>1,44%</t>
@@ -131,9 +296,6 @@
     <t>2,48%</t>
   </si>
   <si>
-    <t>5,69%</t>
-  </si>
-  <si>
     <t>2,62%</t>
   </si>
   <si>
@@ -179,15 +341,156 @@
     <t>95,84%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
     <t>Población según si es capaz de usar un telefono en 2012 (Tasa respuesta: 18,41%)</t>
   </si>
   <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
     <t>3,43%</t>
   </si>
   <si>
@@ -197,9 +500,6 @@
     <t>5,18%</t>
   </si>
   <si>
-    <t>4,23%</t>
-  </si>
-  <si>
     <t>2,88%</t>
   </si>
   <si>
@@ -269,6 +569,144 @@
     <t>Población según si es capaz de usar un telefono en 2016 (Tasa respuesta: 19,52%)</t>
   </si>
   <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
     <t>1,76%</t>
   </si>
   <si>
@@ -314,18 +752,9 @@
     <t>3,99%</t>
   </si>
   <si>
-    <t>3,07%</t>
-  </si>
-  <si>
     <t>5,29%</t>
   </si>
   <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
     <t>97,39%</t>
   </si>
   <si>
@@ -350,79 +779,220 @@
     <t>Población según si es capaz de usar un telefono en 2023 (Tasa respuesta: 31,26%)</t>
   </si>
   <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
   </si>
   <si>
     <t>2,97%</t>
   </si>
   <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
   </si>
 </sst>
 </file>
@@ -834,8 +1404,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14DE07E6-898F-4219-8C18-BED690EBDB15}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C3AFE2-4962-44A6-AE6D-DC1C2B698921}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1862,10 +2432,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D24" s="7">
-        <v>7245</v>
+        <v>3576</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>19</v>
@@ -1877,10 +2447,10 @@
         <v>21</v>
       </c>
       <c r="H24" s="7">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="I24" s="7">
-        <v>19124</v>
+        <v>4629</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>22</v>
@@ -1892,10 +2462,10 @@
         <v>24</v>
       </c>
       <c r="M24" s="7">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="N24" s="7">
-        <v>26369</v>
+        <v>8204</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>25</v>
@@ -1913,10 +2483,10 @@
         <v>12</v>
       </c>
       <c r="C25" s="7">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D25" s="7">
-        <v>18903</v>
+        <v>4545</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>28</v>
@@ -1928,10 +2498,10 @@
         <v>30</v>
       </c>
       <c r="H25" s="7">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I25" s="7">
-        <v>17765</v>
+        <v>7509</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>31</v>
@@ -1943,10 +2513,10 @@
         <v>33</v>
       </c>
       <c r="M25" s="7">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="N25" s="7">
-        <v>36668</v>
+        <v>12053</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>34</v>
@@ -1964,10 +2534,10 @@
         <v>13</v>
       </c>
       <c r="C26" s="7">
-        <v>495</v>
+        <v>295</v>
       </c>
       <c r="D26" s="7">
-        <v>476318</v>
+        <v>284463</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>37</v>
@@ -1979,10 +2549,10 @@
         <v>39</v>
       </c>
       <c r="H26" s="7">
-        <v>626</v>
+        <v>358</v>
       </c>
       <c r="I26" s="7">
-        <v>639952</v>
+        <v>330797</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>40</v>
@@ -1994,10 +2564,10 @@
         <v>42</v>
       </c>
       <c r="M26" s="7">
-        <v>1121</v>
+        <v>653</v>
       </c>
       <c r="N26" s="7">
-        <v>1116271</v>
+        <v>615260</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>43</v>
@@ -2015,10 +2585,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D27" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>46</v>
@@ -2030,10 +2600,10 @@
         <v>46</v>
       </c>
       <c r="H27" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I27" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>46</v>
@@ -2045,10 +2615,10 @@
         <v>46</v>
       </c>
       <c r="M27" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N27" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>46</v>
@@ -2062,55 +2632,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D28" s="7">
-        <v>7245</v>
+        <v>3669</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="H28" s="7">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I28" s="7">
-        <v>19124</v>
+        <v>14496</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="M28" s="7">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N28" s="7">
-        <v>26369</v>
+        <v>18165</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2119,49 +2689,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D29" s="7">
-        <v>18903</v>
+        <v>14358</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="H29" s="7">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I29" s="7">
-        <v>17765</v>
+        <v>10257</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="M29" s="7">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="N29" s="7">
-        <v>36668</v>
+        <v>24615</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2170,49 +2740,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>495</v>
+        <v>200</v>
       </c>
       <c r="D30" s="7">
-        <v>476318</v>
+        <v>191856</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="H30" s="7">
-        <v>626</v>
+        <v>268</v>
       </c>
       <c r="I30" s="7">
-        <v>639952</v>
+        <v>309156</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="M30" s="7">
-        <v>1121</v>
+        <v>468</v>
       </c>
       <c r="N30" s="7">
-        <v>1116271</v>
+        <v>501011</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2221,63 +2791,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>220</v>
+      </c>
+      <c r="D31" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="7">
+        <v>290</v>
+      </c>
+      <c r="I31" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M31" s="7">
+        <v>510</v>
+      </c>
+      <c r="N31" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>7</v>
+      </c>
+      <c r="D32" s="7">
+        <v>7245</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H32" s="7">
+        <v>17</v>
+      </c>
+      <c r="I32" s="7">
+        <v>19124</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M32" s="7">
+        <v>24</v>
+      </c>
+      <c r="N32" s="7">
+        <v>26369</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="7">
+        <v>21</v>
+      </c>
+      <c r="D33" s="7">
+        <v>18903</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" s="7">
+        <v>18</v>
+      </c>
+      <c r="I33" s="7">
+        <v>17765</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M33" s="7">
+        <v>39</v>
+      </c>
+      <c r="N33" s="7">
+        <v>36668</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="7">
+        <v>495</v>
+      </c>
+      <c r="D34" s="7">
+        <v>476318</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H34" s="7">
+        <v>626</v>
+      </c>
+      <c r="I34" s="7">
+        <v>639952</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1121</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1116271</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>523</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>502466</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" s="7">
         <v>661</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>676842</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M35" s="7">
         <v>1184</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>1179308</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>47</v>
+      <c r="O35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2290,8 +3067,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA9BC4B-75DF-4053-8D4C-4FDEA01AD8D4}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A00315-5A15-4D2A-9533-9A15729A2B62}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2307,7 +3084,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3318,49 +4095,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D24" s="7">
-        <v>19209</v>
+        <v>2995</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="H24" s="7">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="I24" s="7">
-        <v>31395</v>
+        <v>2940</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="M24" s="7">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="N24" s="7">
-        <v>50604</v>
+        <v>5935</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3369,49 +4146,49 @@
         <v>12</v>
       </c>
       <c r="C25" s="7">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D25" s="7">
-        <v>36462</v>
+        <v>9362</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H25" s="7">
+        <v>11</v>
+      </c>
+      <c r="I25" s="7">
+        <v>10705</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H25" s="7">
-        <v>43</v>
-      </c>
-      <c r="I25" s="7">
-        <v>45859</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="L25" s="7" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="M25" s="7">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="N25" s="7">
-        <v>82321</v>
+        <v>20067</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3420,49 +4197,49 @@
         <v>13</v>
       </c>
       <c r="C26" s="7">
-        <v>456</v>
+        <v>271</v>
       </c>
       <c r="D26" s="7">
-        <v>503966</v>
+        <v>297429</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="H26" s="7">
-        <v>623</v>
+        <v>330</v>
       </c>
       <c r="I26" s="7">
-        <v>665721</v>
+        <v>340351</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="M26" s="7">
-        <v>1079</v>
+        <v>601</v>
       </c>
       <c r="N26" s="7">
-        <v>1169687</v>
+        <v>637780</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,10 +4248,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D27" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>46</v>
@@ -3486,10 +4263,10 @@
         <v>46</v>
       </c>
       <c r="H27" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I27" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>46</v>
@@ -3501,10 +4278,10 @@
         <v>46</v>
       </c>
       <c r="M27" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N27" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>46</v>
@@ -3518,55 +4295,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D28" s="7">
-        <v>19209</v>
+        <v>16214</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="H28" s="7">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I28" s="7">
-        <v>31395</v>
+        <v>28455</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="M28" s="7">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="N28" s="7">
-        <v>50604</v>
+        <v>44669</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>56</v>
+        <v>131</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3575,49 +4352,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D29" s="7">
-        <v>36462</v>
+        <v>27100</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>58</v>
+        <v>133</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="H29" s="7">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="I29" s="7">
-        <v>45859</v>
+        <v>35154</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>63</v>
+        <v>138</v>
       </c>
       <c r="M29" s="7">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="N29" s="7">
-        <v>82321</v>
+        <v>62254</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>64</v>
+        <v>139</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>66</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3626,49 +4403,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>456</v>
+        <v>185</v>
       </c>
       <c r="D30" s="7">
-        <v>503966</v>
+        <v>206537</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>67</v>
+        <v>141</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>68</v>
+        <v>142</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="H30" s="7">
-        <v>623</v>
+        <v>293</v>
       </c>
       <c r="I30" s="7">
-        <v>665721</v>
+        <v>325370</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
       <c r="M30" s="7">
-        <v>1079</v>
+        <v>478</v>
       </c>
       <c r="N30" s="7">
-        <v>1169687</v>
+        <v>531907</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>72</v>
+        <v>147</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>73</v>
+        <v>148</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>74</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,63 +4454,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>222</v>
+      </c>
+      <c r="D31" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="7">
+        <v>350</v>
+      </c>
+      <c r="I31" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M31" s="7">
+        <v>572</v>
+      </c>
+      <c r="N31" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>18</v>
+      </c>
+      <c r="D32" s="7">
+        <v>19209</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H32" s="7">
+        <v>28</v>
+      </c>
+      <c r="I32" s="7">
+        <v>31395</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="M32" s="7">
+        <v>46</v>
+      </c>
+      <c r="N32" s="7">
+        <v>50604</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="7">
+        <v>30</v>
+      </c>
+      <c r="D33" s="7">
+        <v>36462</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H33" s="7">
+        <v>43</v>
+      </c>
+      <c r="I33" s="7">
+        <v>45859</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="M33" s="7">
+        <v>73</v>
+      </c>
+      <c r="N33" s="7">
+        <v>82321</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="7">
+        <v>456</v>
+      </c>
+      <c r="D34" s="7">
+        <v>503966</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H34" s="7">
+        <v>623</v>
+      </c>
+      <c r="I34" s="7">
+        <v>665721</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1079</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1169687</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>504</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>559637</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" s="7">
         <v>694</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>742975</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M35" s="7">
         <v>1198</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>1302612</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>47</v>
+      <c r="O35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3746,8 +4730,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72EFE48-E237-4932-88A0-38E4ABFDBC76}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D943E9E-53E1-49C3-8A7E-3D195A8BC6F8}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3763,7 +4747,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4774,49 +5758,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D24" s="7">
-        <v>10378</v>
+        <v>2976</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>78</v>
+        <v>177</v>
       </c>
       <c r="H24" s="7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I24" s="7">
-        <v>15468</v>
+        <v>2059</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="M24" s="7">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="N24" s="7">
-        <v>25847</v>
+        <v>5036</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>82</v>
+        <v>181</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>83</v>
+        <v>176</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>84</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4825,49 +5809,49 @@
         <v>12</v>
       </c>
       <c r="C25" s="7">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>13187</v>
+        <v>2796</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>35</v>
+        <v>183</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>85</v>
+        <v>184</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>86</v>
+        <v>185</v>
       </c>
       <c r="H25" s="7">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="I25" s="7">
-        <v>41474</v>
+        <v>6449</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>88</v>
+        <v>186</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="M25" s="7">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="N25" s="7">
-        <v>54661</v>
+        <v>9245</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>90</v>
+        <v>187</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>91</v>
+        <v>188</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>92</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4876,49 +5860,49 @@
         <v>13</v>
       </c>
       <c r="C26" s="7">
-        <v>600</v>
+        <v>319</v>
       </c>
       <c r="D26" s="7">
-        <v>567762</v>
+        <v>328558</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>93</v>
+        <v>190</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>94</v>
+        <v>191</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>95</v>
+        <v>192</v>
       </c>
       <c r="H26" s="7">
-        <v>609</v>
+        <v>346</v>
       </c>
       <c r="I26" s="7">
-        <v>720989</v>
+        <v>369254</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>96</v>
+        <v>193</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>97</v>
+        <v>194</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>98</v>
+        <v>195</v>
       </c>
       <c r="M26" s="7">
-        <v>1209</v>
+        <v>665</v>
       </c>
       <c r="N26" s="7">
-        <v>1288751</v>
+        <v>697812</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>100</v>
+        <v>196</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>101</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4927,10 +5911,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D27" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>46</v>
@@ -4942,10 +5926,10 @@
         <v>46</v>
       </c>
       <c r="H27" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I27" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>46</v>
@@ -4957,10 +5941,10 @@
         <v>46</v>
       </c>
       <c r="M27" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N27" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>46</v>
@@ -4974,55 +5958,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="7">
-        <v>10378</v>
+        <v>7402</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>76</v>
+        <v>153</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="H28" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I28" s="7">
-        <v>15468</v>
+        <v>13409</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="M28" s="7">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N28" s="7">
-        <v>25847</v>
+        <v>20811</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>82</v>
+        <v>201</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>83</v>
+        <v>202</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>84</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5031,49 +6015,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D29" s="7">
-        <v>13187</v>
+        <v>10391</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>35</v>
+        <v>204</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>85</v>
+        <v>205</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>86</v>
+        <v>206</v>
       </c>
       <c r="H29" s="7">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I29" s="7">
-        <v>41474</v>
+        <v>35025</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>87</v>
+        <v>207</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>89</v>
+        <v>209</v>
       </c>
       <c r="M29" s="7">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="N29" s="7">
-        <v>54661</v>
+        <v>45416</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5082,49 +6066,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>600</v>
+        <v>281</v>
       </c>
       <c r="D30" s="7">
-        <v>567762</v>
+        <v>239205</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>93</v>
+        <v>213</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>94</v>
+        <v>214</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>95</v>
+        <v>215</v>
       </c>
       <c r="H30" s="7">
-        <v>609</v>
+        <v>263</v>
       </c>
       <c r="I30" s="7">
-        <v>720989</v>
+        <v>351735</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>96</v>
+        <v>216</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>97</v>
+        <v>217</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>98</v>
+        <v>218</v>
       </c>
       <c r="M30" s="7">
-        <v>1209</v>
+        <v>544</v>
       </c>
       <c r="N30" s="7">
-        <v>1288751</v>
+        <v>590940</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>99</v>
+        <v>219</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>101</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5133,63 +6117,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>302</v>
+      </c>
+      <c r="D31" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="7">
+        <v>301</v>
+      </c>
+      <c r="I31" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M31" s="7">
+        <v>603</v>
+      </c>
+      <c r="N31" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>12</v>
+      </c>
+      <c r="D32" s="7">
+        <v>10378</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H32" s="7">
+        <v>12</v>
+      </c>
+      <c r="I32" s="7">
+        <v>15468</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="M32" s="7">
+        <v>24</v>
+      </c>
+      <c r="N32" s="7">
+        <v>25847</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="7">
+        <v>15</v>
+      </c>
+      <c r="D33" s="7">
+        <v>13187</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H33" s="7">
+        <v>34</v>
+      </c>
+      <c r="I33" s="7">
+        <v>41474</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="M33" s="7">
+        <v>49</v>
+      </c>
+      <c r="N33" s="7">
+        <v>54661</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="7">
+        <v>600</v>
+      </c>
+      <c r="D34" s="7">
+        <v>567762</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H34" s="7">
+        <v>609</v>
+      </c>
+      <c r="I34" s="7">
+        <v>720989</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1209</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1288751</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>627</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>591328</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" s="7">
         <v>655</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>777931</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M35" s="7">
         <v>1282</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>1369259</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>47</v>
+      <c r="O35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5202,8 +6393,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD519EA-1F17-47FD-AD57-9020863D5767}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F9B2064-906C-414B-9935-6144B5BCCE84}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5219,7 +6410,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>245</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6230,49 +7421,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D24" s="7">
-        <v>7208</v>
+        <v>1968</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>103</v>
+        <v>246</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>104</v>
+        <v>247</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>105</v>
+        <v>248</v>
       </c>
       <c r="H24" s="7">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="I24" s="7">
-        <v>26700</v>
+        <v>442</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>106</v>
+        <v>249</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>107</v>
+        <v>179</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>108</v>
+        <v>250</v>
       </c>
       <c r="M24" s="7">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="N24" s="7">
-        <v>33907</v>
+        <v>2410</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>109</v>
+        <v>251</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>110</v>
+        <v>252</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>111</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6281,49 +7472,49 @@
         <v>12</v>
       </c>
       <c r="C25" s="7">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>15632</v>
+        <v>1803</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>25</v>
+        <v>254</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>112</v>
+        <v>255</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>113</v>
+        <v>256</v>
       </c>
       <c r="H25" s="7">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="I25" s="7">
-        <v>44724</v>
+        <v>6836</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>114</v>
+        <v>257</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>115</v>
+        <v>250</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>30</v>
+        <v>258</v>
       </c>
       <c r="M25" s="7">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="N25" s="7">
-        <v>60357</v>
+        <v>8638</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>116</v>
+        <v>259</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>117</v>
+        <v>260</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>118</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6332,49 +7523,49 @@
         <v>13</v>
       </c>
       <c r="C26" s="7">
-        <v>990</v>
+        <v>564</v>
       </c>
       <c r="D26" s="7">
-        <v>674081</v>
+        <v>364394</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>119</v>
+        <v>195</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>120</v>
+        <v>262</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>121</v>
+        <v>263</v>
       </c>
       <c r="H26" s="7">
-        <v>1581</v>
+        <v>812</v>
       </c>
       <c r="I26" s="7">
-        <v>953863</v>
+        <v>600681</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>122</v>
+        <v>264</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>123</v>
+        <v>265</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>124</v>
+        <v>266</v>
       </c>
       <c r="M26" s="7">
-        <v>2571</v>
+        <v>1376</v>
       </c>
       <c r="N26" s="7">
-        <v>1627944</v>
+        <v>965076</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>125</v>
+        <v>267</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>126</v>
+        <v>268</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>127</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6383,10 +7574,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>1027</v>
+        <v>570</v>
       </c>
       <c r="D27" s="7">
-        <v>696921</v>
+        <v>368165</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>46</v>
@@ -6398,10 +7589,10 @@
         <v>46</v>
       </c>
       <c r="H27" s="7">
-        <v>1706</v>
+        <v>826</v>
       </c>
       <c r="I27" s="7">
-        <v>1025287</v>
+        <v>607958</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>46</v>
@@ -6413,10 +7604,10 @@
         <v>46</v>
       </c>
       <c r="M27" s="7">
-        <v>2733</v>
+        <v>1396</v>
       </c>
       <c r="N27" s="7">
-        <v>1722208</v>
+        <v>976124</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>46</v>
@@ -6430,55 +7621,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="7">
-        <v>7208</v>
+        <v>4787</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>103</v>
+        <v>270</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>104</v>
+        <v>271</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>105</v>
+        <v>272</v>
       </c>
       <c r="H28" s="7">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I28" s="7">
-        <v>26700</v>
+        <v>23376</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>106</v>
+        <v>273</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>107</v>
+        <v>274</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>108</v>
+        <v>275</v>
       </c>
       <c r="M28" s="7">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="N28" s="7">
-        <v>33907</v>
+        <v>28163</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>109</v>
+        <v>276</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>110</v>
+        <v>277</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>111</v>
+        <v>278</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6487,49 +7678,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D29" s="7">
-        <v>15632</v>
+        <v>12957</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>25</v>
+        <v>279</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>112</v>
+        <v>280</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>113</v>
+        <v>281</v>
       </c>
       <c r="H29" s="7">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="I29" s="7">
-        <v>44724</v>
+        <v>32850</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>114</v>
+        <v>282</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>115</v>
+        <v>200</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>30</v>
+        <v>283</v>
       </c>
       <c r="M29" s="7">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="N29" s="7">
-        <v>60357</v>
+        <v>45807</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>116</v>
+        <v>284</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>117</v>
+        <v>285</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>118</v>
+        <v>286</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6538,49 +7729,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>990</v>
+        <v>426</v>
       </c>
       <c r="D30" s="7">
-        <v>674081</v>
+        <v>264269</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>119</v>
+        <v>287</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>120</v>
+        <v>288</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>121</v>
+        <v>289</v>
       </c>
       <c r="H30" s="7">
-        <v>1581</v>
+        <v>769</v>
       </c>
       <c r="I30" s="7">
-        <v>953863</v>
+        <v>368901</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>122</v>
+        <v>290</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>123</v>
+        <v>291</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>124</v>
+        <v>292</v>
       </c>
       <c r="M30" s="7">
-        <v>2571</v>
+        <v>1195</v>
       </c>
       <c r="N30" s="7">
-        <v>1627944</v>
+        <v>633170</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>125</v>
+        <v>293</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>126</v>
+        <v>294</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>127</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6589,63 +7780,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>457</v>
+      </c>
+      <c r="D31" s="7">
+        <v>282013</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="7">
+        <v>880</v>
+      </c>
+      <c r="I31" s="7">
+        <v>425128</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M31" s="7">
+        <v>1337</v>
+      </c>
+      <c r="N31" s="7">
+        <v>707141</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>12</v>
+      </c>
+      <c r="D32" s="7">
+        <v>6755</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H32" s="7">
+        <v>47</v>
+      </c>
+      <c r="I32" s="7">
+        <v>23818</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="M32" s="7">
+        <v>59</v>
+      </c>
+      <c r="N32" s="7">
+        <v>30573</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="7">
+        <v>25</v>
+      </c>
+      <c r="D33" s="7">
+        <v>14760</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H33" s="7">
+        <v>78</v>
+      </c>
+      <c r="I33" s="7">
+        <v>39686</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="M33" s="7">
+        <v>103</v>
+      </c>
+      <c r="N33" s="7">
+        <v>54445</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="7">
+        <v>990</v>
+      </c>
+      <c r="D34" s="7">
+        <v>628664</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="H34" s="7">
+        <v>1581</v>
+      </c>
+      <c r="I34" s="7">
+        <v>969582</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="M34" s="7">
+        <v>2571</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1598246</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>1027</v>
       </c>
-      <c r="D31" s="7">
-        <v>696921</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>650178</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" s="7">
         <v>1706</v>
       </c>
-      <c r="I31" s="7">
-        <v>1025287</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I35" s="7">
+        <v>1033086</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M35" s="7">
         <v>2733</v>
       </c>
-      <c r="N31" s="7">
-        <v>1722208</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>47</v>
+      <c r="N35" s="7">
+        <v>1683264</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
